--- a/sheets/profile.xlsx
+++ b/sheets/profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gallas\Documents\WEB_APPS\OO\new_portfolio\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E25867-CC5B-4C71-B1AE-8F354ABB75C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06567EE-861F-4511-B8D7-73E9D4E41AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Data Professional | Software Engineer  </t>
   </si>
   <si>
-    <t>https://dstisas-my.sharepoint.com/:i:/g/personal/falilou_niang_edu_dsti_institute/ER4dKlpsG6ZCiWJzpIfv2gMBiJTzLNgToY85x9a5zr-inQ?e=ArVzYI</t>
+    <t>https://github.com/gallas-ng/new_portfolio/blob/main/images/profile.jpeg?raw=true</t>
   </si>
 </sst>
 </file>
